--- a/biology/Médecine/Glycorachie/Glycorachie.xlsx
+++ b/biology/Médecine/Glycorachie/Glycorachie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La glycorachie[1] désigne la concentration de glucose dans le liquide cérébro-spinal, dont la norme physiologique est fixée à de 0,6 g/L.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La glycorachie désigne la concentration de glucose dans le liquide cérébro-spinal, dont la norme physiologique est fixée à de 0,6 g/L.
 Du fait de la variation même de la glycémie, la glycorachie est souvent exprimée par le rapport :
               [
               g
@@ -539,12 +551,14 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Une glycorachie normale est à peu près égale à la moitié de la glycémie (60 % de la glycémie[2]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Une glycorachie normale est à peu près égale à la moitié de la glycémie (60 % de la glycémie).
 Déséquilibres :
-hypoglycorachie si ce taux est insuffisant, se présente entre autres dans plusieurs pathologies infectieuses[2] ;
-hyperglycorachie si ce taux est excessif, presque toujours liée à une hyperglycémie[2].</t>
+hypoglycorachie si ce taux est insuffisant, se présente entre autres dans plusieurs pathologies infectieuses ;
+hyperglycorachie si ce taux est excessif, presque toujours liée à une hyperglycémie.</t>
         </is>
       </c>
     </row>
@@ -572,13 +586,50 @@
           <t>Rapport glycorachie / glycémie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rapport glycorachie / glycémie est une mesure permettant de comparer le taux de glucose dans le liquide cérébrospinal (LCS) et dans le sang.
 Puisque plusieurs bactéries utilisent le glucose comme substrat métabolique, et grâce aux propriétés de transfert de la barrière hémato-encéphalique, ce ratio peut être utilisé dans l'orientation vers une origine bactérienne de l'infection du LCS.
-Interprétation et applications cliniques
-La valeur normale est de 0,6[3].
-Cette mesure est utilisé dans la distinction  entre méningite bactérienne et virale. Bien que ce ne soit pas une règle absolue, une valeur inférieure à 0,4 traduit une origine bactérienne, alors qu'une valeur normale ne permet pas de l'éliminer (exemple : méningite à Listeria monocytogenes où ce rapport peut être normal)[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Glycorachie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glycorachie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Rapport glycorachie / glycémie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Interprétation et applications cliniques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La valeur normale est de 0,6.
+Cette mesure est utilisé dans la distinction  entre méningite bactérienne et virale. Bien que ce ne soit pas une règle absolue, une valeur inférieure à 0,4 traduit une origine bactérienne, alors qu'une valeur normale ne permet pas de l'éliminer (exemple : méningite à Listeria monocytogenes où ce rapport peut être normal).
 </t>
         </is>
       </c>
